--- a/corpus_tfidf.xlsx
+++ b/corpus_tfidf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV3"/>
+  <dimension ref="A1:FQ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,502 +436,867 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>abord</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>aco</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>acompanh</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>afins</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>agreement</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>alt</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>99999</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>acacias</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ageis</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>agenc</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>amazonia</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>analis</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>angul</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>ano</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>apil</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>aplic</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>assist</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>ativ</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>aprendiz</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>apresent</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>artig</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>assistent</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>auxili</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>bett</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>boa</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>bom</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>campanh</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>canal</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>cinematograf</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>complet</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>av</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>avali</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>bacharel</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>biodivers</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>biolog</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>biologa</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>biologia</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>busc</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>camp</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>campo</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>certific</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>cienc</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>cientif</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>cientifica</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>co</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>codig</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>colet</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>computacao</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>comunic</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>comunicacao</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>conhec</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>conclu</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>conserv</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>consult</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>conteud</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>coorden</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>cri</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>criatividade</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>defin</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>demand</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>css</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>curs</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>dad</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>datacamp</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>depur</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>desafi</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>desafiadores</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>desd</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>desenvolv</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>digital</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>ensin</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>entr</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>entreg</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>desenvolvimento</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>difer</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>digit</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>dispon</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>ecolog</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>ecologia</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>educ</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>elabor</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>empr</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>equip</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>event</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>execuc</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>equipe</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>estagiar</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>estatisticos</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>experi</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>ferrament</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>form</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>feder</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>flu</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>formatos</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>framework</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>gerenc</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>gest</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>getuli</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>habil</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>happen</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>hi</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>inclu</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>interpessoais</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>interpessoal</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>js</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>listen</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>marketing</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>melhor</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>mercado</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>metr</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>mid</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>mobil</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>modern</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>mongodb</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>mr</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>html</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>impact</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>ingl</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>inov</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>inovadores</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>institut</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>integr</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>isa</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>janeiro</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>java</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>javascript</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>jul</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>juliasantos</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>kanban</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>laboratori</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>lideranc</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>lingu</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>luc</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>lucas</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>manaus</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>medi</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>metodolog</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>minh</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>nacion</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>node</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>offic</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>nserv</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>oportun</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>org</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>outr</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>outras</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>par</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>particip</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>performance</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>physic</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>planej</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>popul</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>prev</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>produc</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>projeto</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>promocoes</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>propagand</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>paulista</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>paulo</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>permit</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>pesqu</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>pesquis</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>pesquisa</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>php</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>plataform</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>possu</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>prefer</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>profiss</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>program</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>projet</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>projetos</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>publicitarias</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>react</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>relacion</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>relacionadas</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>relationship</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>reun</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>seek</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>refer</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>regim</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>relatori</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>relatorios</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>requisit</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>resoluc</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>resum</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>rio</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>rj</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>ru</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>sant</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>sao</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>scrum</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>silv</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>sistem</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>soc</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>sociais</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>software</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>soluc</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>sql</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>softw</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>solicitacao</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>sp</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>sps</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>street</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>superi</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>tecn</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>tecnica</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>tecnolog</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>trabalh</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>trad</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>udemy</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>univers</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>utiliz</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>vargas</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>web</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>yard</t>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>xyz</t>
         </is>
       </c>
     </row>
@@ -940,309 +1305,528 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.1131667458803837</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.1131667458803837</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.08051907174893336</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2044507146348041</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.1131667458803837</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.2415572152468001</v>
       </c>
       <c r="V2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2044507146348041</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.1131667458803837</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.2263334917607673</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.1131667458803837</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.1697501188205755</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.1131667458803837</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.6133521439044123</v>
+        <v>0.1131667458803837</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.2044507146348041</v>
+        <v>0</v>
       </c>
       <c r="BE2" t="n">
-        <v>0</v>
+        <v>0.1131667458803837</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>0.3220762869957334</v>
       </c>
       <c r="BG2" t="n">
-        <v>0</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="BJ2" t="n">
         <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="BO2" t="n">
         <v>0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.2044507146348041</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.08051907174893336</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.1697501188205755</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>0.08051907174893336</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.1131667458803837</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.1022253573174021</v>
+        <v>0.1207786076234</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="CK2" t="n">
-        <v>0</v>
+        <v>0.1207786076234</v>
       </c>
       <c r="CL2" t="n">
-        <v>0</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>0.04025953587446668</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0.1131667458803837</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0</v>
+        <v>0.05658337294019183</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>0.2263334917607673</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.07273418367176911</v>
+        <v>0</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.05658337294019183</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.05658337294019183</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.2263334917607673</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.05658337294019183</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.04025953587446668</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.04025953587446668</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.05658337294019183</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.05658337294019183</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.04025953587446668</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.04025953587446668</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.04025953587446668</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.05658337294019183</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.2829168647009592</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.05658337294019183</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.04025953587446668</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.04025953587446668</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.04025953587446668</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.2012976793723334</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.1131667458803837</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.04025953587446668</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.04025953587446668</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.05658337294019183</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.05658337294019183</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0.04025953587446668</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.2263334917607673</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0.05658337294019183</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>0.05658337294019183</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.05658337294019183</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0.1207786076234</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.04025953587446668</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0.1697501188205755</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.04025953587446668</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0.08051907174893336</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0.08051907174893336</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0.1207786076234</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.05658337294019183</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1251,94 +1835,94 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.09820210816299606</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.1840261820876732</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0.1380196365657549</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="V3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0.09201309104383661</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>0.09820210816299606</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.3743795851059348</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -1347,196 +1931,415 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0.09820210816299606</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
         <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>0.09201309104383661</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="BL3" t="n">
-        <v>0</v>
+        <v>0.5060720007411014</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.177582772159019</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.06546807210866404</v>
       </c>
       <c r="BW3" t="n">
-        <v>0</v>
+        <v>0.06546807210866404</v>
       </c>
       <c r="BX3" t="n">
-        <v>0</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="BY3" t="n">
-        <v>0</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="BZ3" t="n">
         <v>0</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.06546807210866404</v>
       </c>
       <c r="CB3" t="n">
         <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>0.09201309104383661</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.1380196365657549</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>0</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.09820210816299606</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.09201309104383661</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0.03273403605433202</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.2495863900706232</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0.0460065455219183</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.1247931950353116</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.08879138607950952</v>
+        <v>0.09201309104383661</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.09201309104383661</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0.09201309104383661</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>0.09201309104383661</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0.09201309104383661</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0.03273403605433202</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>0.1380196365657549</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0.03273403605433202</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0.09201309104383661</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0.03273403605433202</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0.06546807210866404</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0.2300327276095915</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0.03273403605433202</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>0.09201309104383661</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0.03273403605433202</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0.03273403605433202</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>0.09201309104383661</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0.03273403605433202</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>0.1309361442173281</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0.09201309104383661</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0.09201309104383661</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>0.03273403605433202</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0.03273403605433202</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0.09201309104383661</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>0.03273403605433202</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0.2300327276095915</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>0.1380196365657549</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>0.2300327276095915</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0.09820210816299606</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>0.03273403605433202</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>0.1380196365657549</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0.06546807210866404</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0.06546807210866404</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>0.0460065455219183</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0.03273403605433202</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>0.1964042163259921</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>0.2760392731315098</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>0.09201309104383661</v>
       </c>
     </row>
   </sheetData>
